--- a/DOM_Banner/output/dept_banner/Peter Ott_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Peter Ott_2023.xlsx
@@ -542,8 +542,10 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>list(au_id = c("https://openalex.org/A5035612138", "https://openalex.org/A5036981754", "https://openalex.org/A5080741438", "https://openalex.org/A5005923405"), au_display_name = c("Peter Lykke Eriksen", "Lars Djernes", "Hendrik Vilstrup", "Peter Ott"), au_orcid = c("https://orcid.org/0000-0003-1115-8308", NA, NA, "https://orcid.org/0000-0002-3088-1983"), author_position = c("first", "middle", "middle", "last"), au_affiliation_raw = c("", "", "", ""), institution_id = c(NA, NA, NA, NA), institution_display_name = c(NA, 
-NA, NA, NA), institution_ror = c(NA, NA, NA, NA), institution_country_code = c(NA, NA, NA, NA), institution_type = c(NA, NA, NA, NA), institution_lineage = c(NA, NA, NA, NA))</t>
+          <t>list(au_id = c("https://openalex.org/A5035612138", "https://openalex.org/A5036981754", "https://openalex.org/A5080741438", "https://openalex.org/A5005923405"), au_display_name = c("Peter Lykke Eriksen", "Lars Djernes", "Hendrik Vilstrup", "Peter Ott"), au_orcid = c("https://orcid.org/0000-0003-1115-8308", NA, NA, "https://orcid.org/0000-0002-3088-1983"), author_position = c("first", "middle", "middle", "last"), au_affiliation_raw = c("Department of Hepatology and Gastroenterology, Aarhus University Hospital, Denmark", 
+"Department of Anaesthesiology and Intensive Care, Aarhus University Hospital, Denmark; Department of Anaesthesiology and Intensive Care, Viborg Regional Hospital, Denmark", "Department of Clinical Medicine, Aarhus University, Denmark; Department of Hepatology and Gastroenterology, Aarhus University Hospital, Denmark", "Department of Clinical Medicine, Aarhus University, Denmark; Department of Hepatology and Gastroenterology, Aarhus University Hospital, Denmark"), institution_id = c("https://openalex.org/I2802335433", 
+"https://openalex.org/I2802335433", "https://openalex.org/I2802335433", "https://openalex.org/I2802335433"), institution_display_name = c("Aarhus University Hospital", "Aarhus University Hospital", "Aarhus University Hospital", "Aarhus University Hospital"), institution_ror = c("https://ror.org/040r8fr65", "https://ror.org/040r8fr65", "https://ror.org/040r8fr65", "https://ror.org/040r8fr65"), institution_country_code = c("DK", "DK", "DK", "DK"), institution_type = c("healthcare", "healthcare", "healthcare", 
+"healthcare"), institution_lineage = c("https://openalex.org/I2802335433", "https://openalex.org/I2802335433", "https://openalex.org/I2802335433", "https://openalex.org/I2802335433"))</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -690,7 +692,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2392137293", "https://openalex.org/W2977399540", "https://openalex.org/W3031953493", "https://openalex.org/W4365452112", "https://openalex.org/W2233063448", "https://openalex.org/W64474333", "https://openalex.org/W2104585303", "https://openalex.org/W2381486956", "https://openalex.org/W2357783931", "https://openalex.org/W2921071515")</t>
+          <t>c("https://openalex.org/W3031953493", "https://openalex.org/W2791173279", "https://openalex.org/W2809943007", "https://openalex.org/W2069087780", "https://openalex.org/W2366695111", "https://openalex.org/W2979561317", "https://openalex.org/W2987737929", "https://openalex.org/W3118321514", "https://openalex.org/W2019985848", "https://openalex.org/W2356158448")</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -925,22 +927,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Hepatology Communications</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://openalex.org/S4210228550</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2471-254X</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1234,7 +1236,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2141629007", "https://openalex.org/W2998456125", "https://openalex.org/W2088646614", "https://openalex.org/W2051771182", "https://openalex.org/W2186218760", "https://openalex.org/W2473498105", "https://openalex.org/W1585247725", "https://openalex.org/W2031943657", "https://openalex.org/W2919691020", "https://openalex.org/W1997688092")</t>
+          <t>c("https://openalex.org/W2186218760", "https://openalex.org/W2141629007", "https://openalex.org/W2998456125", "https://openalex.org/W2088646614", "https://openalex.org/W2473498105", "https://openalex.org/W2031943657", "https://openalex.org/W2919691020", "https://openalex.org/W1997688092", "https://openalex.org/W2769989561", "https://openalex.org/W2374585174")</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1582,7 +1584,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2417403314", "https://openalex.org/W1640165957", "https://openalex.org/W3105232760", "https://openalex.org/W2461769281", "https://openalex.org/W2412718868", "https://openalex.org/W2019425800", "https://openalex.org/W2080518293", "https://openalex.org/W167219501", "https://openalex.org/W2195790131", "https://openalex.org/W2157284704")</t>
+          <t>c("https://openalex.org/W2417403314", "https://openalex.org/W1640165957", "https://openalex.org/W3105232760", "https://openalex.org/W2461769281", "https://openalex.org/W2412718868", "https://openalex.org/W167219501", "https://openalex.org/W2195790131", "https://openalex.org/W131384799", "https://openalex.org/W4391141357", "https://openalex.org/W2085904991")</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
@@ -2151,22 +2153,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://openalex.org/S66441642</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0002-9270</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2231,7 +2233,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Peter Ott_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Peter Ott_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Hepatology and Gastroenterology, Aarhus University Hospital, Denmark; Department of Anaesthesiology and Intensive Care, Aarhus University Hospital, Denmark; Department of Anaesthesiology and Intensive Care, Viborg Regional Hospital, Denmark; Department of Clinical Medicine, Aarhus University, Denmark; Department of Hepatology and Gastroenterology, Aarhus University Hospital, Denmark; Department of Clinical Medicine, Aarhus University, Denmark; Department of Hepatology and Gastroenterology, Aarhus University Hospital, Denmark</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4365452112</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Clearance and production of ammonia quantified in humans by constant ammonia infusion – the effects of cirrhosis and ammonia-targeting treatments</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Journal of Hepatology</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jhep.2023.03.042</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37061198</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jhep.2023.03.042</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Hepatology and Gastroenterology, Aarhus University Hospital, Aarhus, Denmark; Department of Biomedicine, Aarhus University, Aarhus, Denmark; Department of Nuclear Medicine and PET Centre, Aarhus University Hospital, Aarhus, Denmark; Department of Hepatology and Gastroenterology, Aarhus University Hospital, Aarhus, Denmark; Department of Hepatology and Gastroenterology, Aarhus University Hospital, Aarhus, Denmark; Department of Nuclear Medicine and PET Centre, Aarhus University Hospital, Aarhus, Denmark; Department of Nuclear Medicine and PET Centre, Aarhus University Hospital, Aarhus, Denmark; Department of Nuclear Medicine and PET Centre, Aarhus University Hospital, Aarhus, Denmark; Department of Hepatology and Gastroenterology, Aarhus University Hospital, Aarhus, Denmark; Department of Hepatology and Gastroenterology, Aarhus University Hospital, Aarhus, Denmark; Department of Hepatology and Gastroenterology, Aarhus University Hospital, Aarhus, Denmark</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387007271</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Distribution of non-ceruloplasmin-bound copper after i.v. 64Cu injection studied with PET/CT in patients with Wilson disease</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-11-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>JHEP Reports</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jhepr.2023.100916</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37886434</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jhepr.2023.100916</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Department of Hepatology &amp; Gastroenterology, Aarhus University Hospital, Aarhus, Denmark; Department of Hepatology &amp; Gastroenterology, Aarhus University Hospital, Aarhus, Denmark; Institute of Pathology, Aarhus University Hospital, Aarhus, Denmark; Department of Clinical Biochemistry, Aarhus University Hospital, Aarhus, Denmark; Department of Hepatology &amp; Gastroenterology, Aarhus University Hospital, Aarhus, Denmark; Department of Hepatology &amp; Gastroenterology, Aarhus University Hospital, Aarhus, Denmark; Diagnostic Centre, University Research Clinic for Innovative Patient Pathways, Silkeborg Regional Hospital, Silkeborg, Denmark; Diagnostic Centre, University Research Clinic for Innovative Patient Pathways, Silkeborg Regional Hospital, Silkeborg, Denmark; Department of Internal Medicine, Horsens Regional Hospital, Horsens, Denmark; Department of Internal Medicine, Horsens Regional Hospital, Horsens, Denmark; Department of Hepatology &amp; Gastroenterology, Aarhus University Hospital, Aarhus, Denmark; Department of Internal Medicine, Herning Regional Hospital, Herning, Denmark; Department of Internal Medicine, Randers Regional Hospital, Randers, Denmark; Department of Internal Medicine, Viborg Regional Hospital, Viborg, Denmark; Department of Clinical Biochemistry, Aarhus University Hospital, Aarhus, Denmark; Department of Hepatology &amp; Gastroenterology, Aarhus University Hospital, Aarhus, Denmark; Department of Hepatology &amp; Gastroenterology, Aarhus University Hospital, Aarhus, Denmark</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4360993396</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>The association between soluble CD163, disease severity, and ursodiol treatment in patients with primary biliary cholangitis</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-03-24</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Hepatology Communications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/hc9.0000000000000068</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36972379</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/hc9.0000000000000068</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Department of Hepatology and Gastroenterology, Aarhus University Hospital; Department of Hepatology and Gastroenterology, Aarhus University Hospital; Department of Nuclear Medicine &amp; PET-Center, Aarhus University Hospital; Department of Nuclear Medicine &amp; PET-Center, Aarhus University Hospital; Department of Nuclear Medicine &amp; PET-Center, Aarhus University Hospital; Department of Hepatology and Gastroenterology, Aarhus University Hospital; Department of Hepatology and Gastroenterology, Aarhus University Hospital</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367301792</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Positron Emission Tomography Using 64-Copper as a Tracer for the Study of Copper-Related Disorders</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-04-28</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Journal of Visualized Experiments</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>MyJOVE</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.3791/65109</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37184248</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.3791/65109</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -770,80 +795,85 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hendrik Vilstrup, Peter Lykke Eriksen, Peter Ott</t>
+          <t>Frederik Teicher Kirk, Ditte Emilie Munk, Eugene S. Swenson, Adam Quicquaro, Mikkel Holm Vendelbo, Michael L. Schilsky, Peter Ott, Thomas Damgaard Sandahl</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382795294</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Further on ammonia concentration, -clearance, -removal, and -production</t>
+          <t>https://openalex.org/W4384848766</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023-11-01</t>
+          <t>Effects of tetrathiomolybdate, trientine, and penicillamine on intestinal copper uptake: a randomized placebo-controlled 64Cu PET/CT study</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>2023-06-01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Journal of Hepatology</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.jhep.2023.06.016</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1016/s0168-8278(23)03007-6</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37400017</t>
-        </is>
-      </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jhep.2023.06.016</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/s0168-8278(23)03007-6</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -852,80 +882,85 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Frederik Teicher Kirk, Ditte Emilie Munk, Eugene S. Swenson, Adam Quicquaro, Mikkel Holm Vendelbo, Michael L. Schilsky, Peter Ott, Thomas Damgaard Sandahl</t>
+          <t>Frederik Teicher Kirk, Ditte Emilie Munk, Eugene S. Swenson, Adam M. Quicquaro, Mikkel Holm Vendelbo, Michael L. Schilsky, Peter Ott, Thomas Damgaard Sandahl</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4384848766</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Effects of tetrathiomolybdate, trientine, and penicillamine on intestinal copper uptake: a randomized placebo-controlled 64Cu PET/CT study</t>
+          <t>https://openalex.org/W4384941254</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>Effects of tetrathiomolybdate on copper distribution and biliary excretion: a controlled 64CuCl2 PET/MRI</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Journal of Hepatology</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/s0168-8278(23)03007-6</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1016/s0168-8278(23)03042-8</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/s0168-8278(23)03007-6</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/s0168-8278(23)03042-8</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -934,80 +969,85 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Frederik Teicher Kirk, Ditte Emilie Munk, Eugene S. Swenson, Adam M. Quicquaro, Mikkel Holm Vendelbo, Michael L. Schilsky, Peter Ott, Thomas Damgaard Sandahl</t>
+          <t>Peter Lykke Eriksen, Lars Djernes, Hendrik Vilstrup, Peter Ott</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4384941254</t>
+          <t xml:space="preserve">; ; ; </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Effects of tetrathiomolybdate on copper distribution and biliary excretion: a controlled 64CuCl2 PET/MRI</t>
+          <t>https://openalex.org/W4384942211</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>Whole body clearance and production of ammonia quantified by constant ammonia infusion-the effects of cirrhosis and ammonia targeting treatments</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Journal of Hepatology</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/s0168-8278(23)03042-8</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1016/s0168-8278(23)00824-3</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/s0168-8278(23)03042-8</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/s0168-8278(23)00824-3</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1016,80 +1056,85 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Peter Lykke Eriksen, Lars Djernes, Hendrik Vilstrup, Peter Ott</t>
+          <t>Aftab Ala, James Liu Yin, Joanna Moore, Valentina Medici, Regino P. González‐Peralta, COF Kamlin, M. Heifetz, Peter Ott, Michael L. Schilsky</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4384942211</t>
+          <t>Department of Clinical and Experimental Medicine, Faculty of Health and Medical Sciences, University of Surrey, Surrey, UK; Department of Gastroenterology and Hepatology, Royal Surrey NHS Foundation Trust, Surrey, UK; Institute of Liver Studies, King’s College Hospital NHS Trust, London, UK; Institute of Liver Studies, King’s College Hospital NHS Trust, London, UK; Leeds Teaching Hospitals NHS Trust, Leeds, UK; Division of Gastroenterology and Hepatology, Department of Internal Medicine, University of California, Davis, Sacramento, USA; AdventHealth for Children, AdventHealth Transplant Institute, Orlando, USA; ; ; Department of Hepatology and Gastroenterology, Aarhus University Hospital, Aarhus, Denmark; Department of Medicine, Section of Digestive Diseases, and Department of Surgery, Section of Transplant and Immunology, Yale School of Medicine, New Haven, USA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Whole body clearance and production of ammonia quantified by constant ammonia infusion-the effects of cirrhosis and ammonia targeting treatments</t>
+          <t>https://openalex.org/W4386886441</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>P21 Monitoring maintenance therapy with D-Penicillamine for Wilson’s Disease: lessons from screening for a randomized trial</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Journal of Hepatology</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Poster presentations</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0168-8278(23)00824-3</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1136/gutjnl-2023-basl.37</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/s0168-8278(23)00824-3</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1136/gutjnl-2023-basl.37</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1098,80 +1143,85 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Aftab Ala, James Liu Yin, Joanna Moore, Valentina Medici, Regino P. González‐Peralta, COF Kamlin, M. Heifetz, Peter Ott, Michael L. Schilsky</t>
+          <t>Peter Lykke Eriksen, Lars Djernes, Hendrik Vilstrup, Peter Ott</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386886441</t>
+          <t>Department of Hepatology and Gastroenterology, Aarhus University Hospital, Denmark;; Department of Anaesthesiology and Intensive Care, Aarhus University Hospital, Denmark;; Department of Anaesthesiology and Intensive Care, Viborg Regional Hospital, Denmark;; Department of Clinical Medicine, Aarhus University, Denmark.; Department of Hepatology and Gastroenterology, Aarhus University Hospital, Denmark;; Department of Clinical Medicine, Aarhus University, Denmark.; Department of Hepatology and Gastroenterology, Aarhus University Hospital, Denmark;</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P21 Monitoring maintenance therapy with D-Penicillamine for Wilson’s Disease: lessons from screening for a randomized trial</t>
+          <t>https://openalex.org/W4387037125</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>P2 Whole-Body Clearance and Production of Ammonia Quantified by Constant Ammonia Infusion – The Effects of Cirrhosis and Ammonia Targeting Treatments</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Poster presentations</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>The American Journal of Gastroenterology</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Lippincott Williams &amp; Wilkins</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.14309/01.ajg.0000948288.61078.92</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1136/gutjnl-2023-basl.37</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1136/gutjnl-2023-basl.37</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.14309/01.ajg.0000948288.61078.92</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1180,80 +1230,85 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Peter Lykke Eriksen, Lars Djernes, Hendrik Vilstrup, Peter Ott</t>
+          <t>Frederik Teicher Kirk, Ditte Emilie Munk, Eugene S. Swenson, Adam M. Quicquaro, Mikkel Holm Vendelbo, Agnete Larsen, Michael L. Schilsky, Peter Ott, Thomas Damgaard Sandahl</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387037125</t>
+          <t>Department of Hepatology and Gastroenterology, Aarhus University Hospital, Aarhus, Denmark; Department of Hepatology and Gastroenterology, Aarhus University Hospital, Aarhus, Denmark; Alexion, AstraZeneca Rare Disease, Boston, MA, USA; Alexion, AstraZeneca Rare Disease, Boston, MA, USA; Department of Biomedicine, Aarhus University, Aarhus, Denmark; Department of Nuclear Medicine &amp; PET-center, Aarhus University Hospital, Aarhus, Denmark; Department of Biomedicine, Aarhus University, Aarhus, Denmark; Department of Medicine, Section of Digestive Diseases, and Department of Surgery, Section of Transplant and Immunology, Yale School of Medicine, New Haven, CT, USA; Department of Hepatology and Gastroenterology, Aarhus University Hospital, Aarhus, Denmark; Department of Hepatology and Gastroenterology, Aarhus University Hospital, Aarhus, Denmark</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P2 Whole-Body Clearance and Production of Ammonia Quantified by Constant Ammonia Infusion – The Effects of Cirrhosis and Ammonia Targeting Treatments</t>
+          <t>https://openalex.org/W4389514189</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>Effects of tetrathiomolybdate on copper metabolism in healthy volunteers and in patients with Wilson disease</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>The American Journal of Gastroenterology</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Journal of Hepatology</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.14309/01.ajg.0000948288.61078.92</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/j.jhep.2023.11.023</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K11" t="inlineStr">
         <is>
+          <t>hybrid</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.14309/01.ajg.0000948288.61078.92</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38081365</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.jhep.2023.11.023</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1262,80 +1317,85 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Frederik Teicher Kirk, Ditte Emilie Munk, Eugene S. Swenson, Adam M. Quicquaro, Mikkel Holm Vendelbo, Agnete Larsen, Michael L. Schilsky, Peter Ott, Thomas Damgaard Sandahl</t>
+          <t>Frederik Teicher Kirk, Ditte Emilie Munk, Eugene S. Swenson, Adam M. Quicquaro, Mikkel Holm Vendelbo, Michael L. Schilsky, Peter Ott, Thomas Damgaard Sandahl</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389514189</t>
+          <t>Department of Hepatology and Gastroenterology, Aarhus University Hospital, Aarhus, Denmark; Department of Hepatology and Gastroenterology, Aarhus University Hospital, Aarhus, Denmark; Alexion, AstraZeneca Rare Disease, Boston, Massachusetts, USA; Alexion, AstraZeneca Rare Disease, Boston, Massachusetts, USA; Department of Biomedicine, Aarhus University, Aarhus, Denmark; Department of Nuclear Medicine &amp; PET-center, Aarhus University Hospital, Aarhus, Denmark; Department of Medicine, Section of Digestive Diseases, Yale School of Medicine, New Haven, Connecticut, USA; Department of Surgery, Section of Transplant and Immunology, Yale School of Medicine, New Haven, Connecticut, USA; Department of Hepatology and Gastroenterology, Aarhus University Hospital, Aarhus, Denmark; Department of Hepatology and Gastroenterology, Aarhus University Hospital, Aarhus, Denmark</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Effects of tetrathiomolybdate on copper metabolism in healthy volunteers and in patients with Wilson disease</t>
+          <t>https://openalex.org/W4389670904</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>Effects of trientine and penicillamine on intestinal copper uptake: A mechanistic 64Cu PET/CT study in healthy humans</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Journal of Hepatology</t>
+          <t>2023-12-13</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Hepatology</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jhep.2023.11.023</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1097/hep.0000000000000708</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>cc-by-nc-nd</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38081365</t>
-        </is>
-      </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jhep.2023.11.023</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38088886</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1097/hep.0000000000000708</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1344,80 +1404,85 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Frederik Teicher Kirk, Ditte Emilie Munk, Eugene S. Swenson, Adam M. Quicquaro, Mikkel Holm Vendelbo, Michael L. Schilsky, Peter Ott, Thomas Damgaard Sandahl</t>
+          <t>Hendrik Vilstrup, Peter Lykke Eriksen, Peter Ott</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389670904</t>
+          <t>Department of Hepatology and Gastroenterology, Aarhus University Hospital, Denmark; Department of Hepatology and Gastroenterology, Aarhus University Hospital, Denmark; Department of Hepatology and Gastroenterology, Aarhus University Hospital, Denmark</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Effects of trientine and penicillamine on intestinal copper uptake: A mechanistic 64Cu PET/CT study in healthy humans</t>
+          <t>https://openalex.org/W4382795294</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023-12-13</t>
+          <t>Further on ammonia concentration, -clearance, -removal, and -production</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hepatology</t>
+          <t>2023-11-01</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Journal of Hepatology</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/hep.0000000000000708</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>cc-by-nc-nd</t>
+          <t>https://doi.org/10.1016/j.jhep.2023.06.016</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>hybrid</t>
-        </is>
-      </c>
       <c r="K13" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38088886</t>
-        </is>
-      </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/hep.0000000000000708</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37400017</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.jhep.2023.06.016</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
